--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/10bet2winDataBrokenURLList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/10bet2winDataBrokenURLList.xlsx
@@ -27,7 +27,7 @@
     <t>4 59 ID=75976 Provider=Yggdrasil Name=Baccarat cod=0 description=null ResponseObject=24</t>
   </si>
   <si>
-    <t>5 62 ID=75977 Provider=Yggdrasil Name=Baccarat VIP cod=0 description=null ResponseObject=24</t>
+    <t>5 63 ID=75977 Provider=Yggdrasil Name=Baccarat VIP cod=0 description=null ResponseObject=24</t>
   </si>
   <si>
     <t>6 77 ID=23741 Provider=QuickSpin Name=Big Bad Wolf cod=21 description=The system cannot find the file specified.
@@ -89,258 +89,258 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>23 229 ID=23730 Provider=QuickSpin Name=Eastern Emeralds cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>24 246 ID=23731 Provider=QuickSpin Name=Fairy Gate cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>25 256 ID=29986 Provider=PushGaming Name=Fat Rabbit cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>26 259 ID=6019 Provider=TomHorn Name=Feng Fu cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>27 266 ID=6003 Provider=TomHorn Name=Fire 'n' Hot cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>28 278 ID=6015 Provider=TomHorn Name=Flaming Fruit cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>29 283 ID=29278 Provider=PariPlay Name=Force of the Gods cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>30 292 ID=6089 Provider=TomHorn Name=Frozen Queen cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>31 312 ID=6005 Provider=TomHorn Name=Geisha's Fan cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>32 318 ID=23743 Provider=QuickSpin Name=Genies Touch cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>33 324 ID=75277 Provider=Yggdrasil Name=Glory of Heroes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>34 333 ID=6099 Provider=TomHorn Name=Gold x cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>35 346 ID=23021 Provider=QuickSpin Name=Goldilocks &amp; Wild Bears cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>36 347 ID=23015 Provider=QuickSpin Name=Gold Lab cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>37 366 ID=23783 Provider=QuickSpin Name=Hidden Valley cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>38 377 ID=6106 Provider=TomHorn Name=Hot Blizzard cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>39 382 ID=23732 Provider=QuickSpin Name=Hot Sync cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>40 386 ID=6105 Provider=TomHorn Name=Hot'n'Fruity cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>41 393 ID=29981 Provider=PushGaming Name=Humpty Dumpty cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>42 403 ID=23744 Provider=QuickSpin Name=Illuminous cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>43 404 ID=29983 Provider=PushGaming Name=Immortal Guild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>44 408 ID=6107 Provider=TomHorn Name=Inca's Treasure cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>45 414 ID=23754 Provider=RelaxGaming Name=Iron Bank cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>46 415 ID=23784 Provider=QuickSpin Name=Ivan and the Immortal King cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>47 437 ID=6102 Provider=TomHorn Name=Joker Reelz cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>48 438 ID=23785 Provider=QuickSpin Name=Joker Strike cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>49 453 ID=29701 Provider=PariPlay Name=King of the Trident Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>50 472 ID=28655 Provider=PlaysonDirect Name=Legend of Cleopatra Megaways cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>51 474 ID=23724 Provider=QuickSpin Name=Leprechaun Hills cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>52 476 ID=76131 Provider=Yggdrasil Name=Let It Slide cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>53 515 ID=23018 Provider=QuickSpin Name=Mayana cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>54 528 ID=23019 Provider=QuickSpin Name=Mighty Arthur cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>55 534 ID=23753 Provider=RelaxGaming Name=Money Train 2 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>56 535 ID=6008 Provider=TomHorn Name=Monkey 27 cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>57 539 ID=6090 Provider=TomHorn Name=Monster Madness cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>58 545 ID=23733 Provider=QuickSpin Name=Mountain King cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>59 561 ID=23734 Provider=QuickSpin Name=Northern Sky cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>60 572 ID=6001 Provider=TomHorn Name=Panda's Run cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>61 585 ID=23017 Provider=QuickSpin Name=Phoenix Sun cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>62 586 ID=23735 Provider=QuickSpin Name=Pied Piper cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>63 594 ID=23736 Provider=QuickSpin Name=Pirates Charm cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>64 626 ID=23011 Provider=QuickSpin Name=Razortooth cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>65 629 ID=6091 Provider=TomHorn Name=Red Lights cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>66 652 ID=75969 Provider=Yggdrasil Name=Roulette Evolution cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>67 653 ID=75968 Provider=Yggdrasil Name=Roulette Evolution VIP cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>68 667 ID=75005 Provider=Yggdrasil Name=Sabres and Swords: Charge Gigablox cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>69 680 ID=6018 Provider=TomHorn Name=Savannah King cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>70 681 ID=6095 Provider=TomHorn Name=Scratch Card cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>71 686 ID=23012 Provider=QuickSpin Name=Second Strike cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>72 693 ID=23013 Provider=QuickSpin Name=Sevens High cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>73 696 ID=6004 Provider=TomHorn Name=Shaolin's Tiger cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>74 698 ID=6093 Provider=TomHorn Name=Sherlock in Bohemia cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>75 702 ID=6012 Provider=TomHorn Name=Sizable Win cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>76 706 ID=6017 Provider=TomHorn Name=Sky Barons cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>77 709 ID=23752 Provider=RelaxGaming Name=Snake Arena cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>78 722 ID=6109 Provider=TomHorn Name=Spinball cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>79 723 ID=23016 Provider=QuickSpin Name=Spinions Beach Party cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>80 732 ID=75841 Provider=Yggdrasil Name=Steam Spin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>81 733 ID=23020 Provider=QuickSpin Name=Sticky Bandits cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>82 750 ID=6098 Provider=TomHorn Name=Sweet Crush cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>83 758 ID=23737 Provider=QuickSpin Name=Tales of Doctor Dolittle cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>84 763 ID=6016 Provider=TomHorn Name=The Cup cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>85 773 ID=23782 Provider=QuickSpin Name=The Grand cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>86 787 ID=6103 Provider=TomHorn Name=The Secret of BA cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>87 795 ID=6006 Provider=TomHorn Name=Thrones Of Persia cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>88 804 ID=75193 Provider=PariPlay Name=Tiki Magic cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>89 807 ID=29992 Provider=PushGaming Name=Tiki Tumble cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>90 840 ID=23738 Provider=QuickSpin Name=Volcano Riches cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>91 851 ID=23750 Provider=RelaxGaming Name=Wild Chapo cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>92 853 ID=23739 Provider=QuickSpin Name=Wild Chase cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>93 867 ID=6094 Provider=TomHorn Name=Wild Weather cod=60 description=Partner key not found ResponseObject=null</t>
-  </si>
-  <si>
-    <t>94 869 ID=29980 Provider=PushGaming Name=Wild Wheel cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>95 875 ID=23740 Provider=QuickSpin Name=Wins of Fortune cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>96 879 ID=6100 Provider=TomHorn Name=Wolf Sierra cod=60 description=Partner key not found ResponseObject=null</t>
+    <t>23 228 ID=23730 Provider=QuickSpin Name=Eastern Emeralds cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>24 245 ID=23731 Provider=QuickSpin Name=Fairy Gate cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>25 254 ID=29986 Provider=PushGaming Name=Fat Rabbit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>26 258 ID=6019 Provider=TomHorn Name=Feng Fu cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>27 265 ID=6003 Provider=TomHorn Name=Fire 'n' Hot cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>28 277 ID=6015 Provider=TomHorn Name=Flaming Fruit cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>29 280 ID=29278 Provider=PariPlay Name=Force of the Gods cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>30 291 ID=6089 Provider=TomHorn Name=Frozen Queen cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>31 311 ID=6005 Provider=TomHorn Name=Geisha's Fan cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>32 317 ID=23743 Provider=QuickSpin Name=Genies Touch cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>33 323 ID=75277 Provider=Yggdrasil Name=Glory of Heroes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>34 332 ID=6099 Provider=TomHorn Name=Gold x cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>35 345 ID=23021 Provider=QuickSpin Name=Goldilocks &amp; Wild Bears cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>36 346 ID=23015 Provider=QuickSpin Name=Gold Lab cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>37 365 ID=23783 Provider=QuickSpin Name=Hidden Valley cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>38 376 ID=6106 Provider=TomHorn Name=Hot Blizzard cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>39 381 ID=23732 Provider=QuickSpin Name=Hot Sync cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>40 385 ID=6105 Provider=TomHorn Name=Hot'n'Fruity cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>41 392 ID=29981 Provider=PushGaming Name=Humpty Dumpty cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>42 402 ID=23744 Provider=QuickSpin Name=Illuminous cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>43 403 ID=29983 Provider=PushGaming Name=Immortal Guild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>44 407 ID=6107 Provider=TomHorn Name=Inca's Treasure cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>45 413 ID=23754 Provider=RelaxGaming Name=Iron Bank cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>46 414 ID=23784 Provider=QuickSpin Name=Ivan and the Immortal King cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>47 436 ID=6102 Provider=TomHorn Name=Joker Reelz cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>48 437 ID=23785 Provider=QuickSpin Name=Joker Strike cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>49 452 ID=29701 Provider=PariPlay Name=King of the Trident Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>50 471 ID=28655 Provider=PlaysonDirect Name=Legend of Cleopatra Megaways cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>51 473 ID=23724 Provider=QuickSpin Name=Leprechaun Hills cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>52 475 ID=76131 Provider=Yggdrasil Name=Let It Slide cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>53 514 ID=23018 Provider=QuickSpin Name=Mayana cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>54 527 ID=23019 Provider=QuickSpin Name=Mighty Arthur cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>55 533 ID=23753 Provider=RelaxGaming Name=Money Train 2 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>56 534 ID=6008 Provider=TomHorn Name=Monkey 27 cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>57 538 ID=6090 Provider=TomHorn Name=Monster Madness cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>58 544 ID=23733 Provider=QuickSpin Name=Mountain King cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>59 560 ID=23734 Provider=QuickSpin Name=Northern Sky cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>60 571 ID=6001 Provider=TomHorn Name=Panda's Run cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>61 584 ID=23017 Provider=QuickSpin Name=Phoenix Sun cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>62 585 ID=23735 Provider=QuickSpin Name=Pied Piper cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>63 593 ID=23736 Provider=QuickSpin Name=Pirates Charm cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>64 625 ID=23011 Provider=QuickSpin Name=Razortooth cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>65 628 ID=6091 Provider=TomHorn Name=Red Lights cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>66 651 ID=75969 Provider=Yggdrasil Name=Roulette Evolution cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>67 652 ID=75968 Provider=Yggdrasil Name=Roulette Evolution VIP cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>68 666 ID=75005 Provider=Yggdrasil Name=Sabres and Swords: Charge Gigablox cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>69 679 ID=6018 Provider=TomHorn Name=Savannah King cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>70 680 ID=6095 Provider=TomHorn Name=Scratch Card cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>71 685 ID=23012 Provider=QuickSpin Name=Second Strike cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>72 692 ID=23013 Provider=QuickSpin Name=Sevens High cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>73 695 ID=6004 Provider=TomHorn Name=Shaolin's Tiger cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>74 697 ID=6093 Provider=TomHorn Name=Sherlock in Bohemia cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>75 701 ID=6012 Provider=TomHorn Name=Sizable Win cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>76 705 ID=6017 Provider=TomHorn Name=Sky Barons cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>77 708 ID=23752 Provider=RelaxGaming Name=Snake Arena cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>78 721 ID=6109 Provider=TomHorn Name=Spinball cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>79 722 ID=23016 Provider=QuickSpin Name=Spinions Beach Party cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>80 731 ID=75841 Provider=Yggdrasil Name=Steam Spin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>81 732 ID=23020 Provider=QuickSpin Name=Sticky Bandits cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>82 749 ID=6098 Provider=TomHorn Name=Sweet Crush cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>83 757 ID=23737 Provider=QuickSpin Name=Tales of Doctor Dolittle cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>84 762 ID=6016 Provider=TomHorn Name=The Cup cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>85 772 ID=23782 Provider=QuickSpin Name=The Grand cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>86 786 ID=6103 Provider=TomHorn Name=The Secret of BA cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>87 794 ID=6006 Provider=TomHorn Name=Thrones Of Persia cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>88 803 ID=75193 Provider=PariPlay Name=Tiki Magic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>89 805 ID=29992 Provider=PushGaming Name=Tiki Tumble cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>90 839 ID=23738 Provider=QuickSpin Name=Volcano Riches cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>91 850 ID=23750 Provider=RelaxGaming Name=Wild Chapo cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>92 852 ID=23739 Provider=QuickSpin Name=Wild Chase cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>93 866 ID=6094 Provider=TomHorn Name=Wild Weather cod=60 description=Partner key not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>94 868 ID=29980 Provider=PushGaming Name=Wild Wheel cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>95 874 ID=23740 Provider=QuickSpin Name=Wins of Fortune cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>96 878 ID=6100 Provider=TomHorn Name=Wolf Sierra cod=60 description=Partner key not found ResponseObject=null</t>
   </si>
 </sst>
 </file>
